--- a/help/marketo/getting-started/implementing-a-new-marketo-engage-instance/assets/adobe-marketo-engage-new-instance-admin-checklist.xlsx
+++ b/help/marketo/getting-started/implementing-a-new-marketo-engage-instance/assets/adobe-marketo-engage-new-instance-admin-checklist.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adobe-my.sharepoint.com/personal/gluck_adobe_com/Documents/Desktop/AAA DOC IMG TRANSITION/TEMP FOLDER/HEADER-FOOTER PROJECT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adobe-my.sharepoint.com/personal/gluck_adobe_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{8F640EEF-9821-4ED8-B72A-827E6AA08BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FF5B6AB-E3C7-44CE-B5D3-5B7302A0B423}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74572708-7EDE-49D1-AAD5-E88CCEC507C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24900" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="1860" windowWidth="24900" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial Setup Tasks " sheetId="1" r:id="rId1"/>
     <sheet name="User Setup" sheetId="8" r:id="rId2"/>
     <sheet name="Admin Section" sheetId="2" r:id="rId3"/>
     <sheet name="Database" sheetId="3" r:id="rId4"/>
-    <sheet name="Marketing Activities " sheetId="4" r:id="rId5"/>
-    <sheet name="Design Studio" sheetId="5" r:id="rId6"/>
-    <sheet name="Document your setup" sheetId="6" r:id="rId7"/>
+    <sheet name="Design Studio" sheetId="5" r:id="rId5"/>
+    <sheet name="Marketing Activities " sheetId="4" r:id="rId6"/>
+    <sheet name="Analytics" sheetId="9" r:id="rId7"/>
+    <sheet name="Document your setup" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Initial Setup Tasks '!$D$1:$D$4</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="434">
   <si>
     <t>Task</t>
   </si>
@@ -182,6 +183,9 @@
     <t>Custom Objects</t>
   </si>
   <si>
+    <t>Email Defaults Settings</t>
+  </si>
+  <si>
     <t>Integrations</t>
   </si>
   <si>
@@ -336,6 +340,9 @@
   </si>
   <si>
     <t>Email Performance Report</t>
+  </si>
+  <si>
+    <t>Set up SPF and DKIM for your Email Deliverability</t>
   </si>
   <si>
     <t>Subscription/Preference Center</t>
@@ -511,6 +518,9 @@
     <t>• Import program templates from the Program Library to start.</t>
   </si>
   <si>
+    <t>• Email program: Under the 'Setup' tab, enable Communication Limits (recommended).</t>
+  </si>
+  <si>
     <t>• Create an Interactive Webinar, the built-in webinar platform, using an Event Program and associate a room with the Interactive Webinar program (recommended).</t>
   </si>
   <si>
@@ -744,9 +754,27 @@
     <t>Smart Campaigns Settings</t>
   </si>
   <si>
+    <t>Email Settings</t>
+  </si>
+  <si>
     <t>• Add a restriction on Smart Campaign size, preventing accidentally emailing your entire database.</t>
   </si>
   <si>
+    <t>SPF/DKIM</t>
+  </si>
+  <si>
+    <t>• Set up SPF &amp; DKIM for email deliverability.</t>
+  </si>
+  <si>
+    <t>• Under Branding Domain, select your domain and add your Email CNAME. This should be in the form: [EmailTrackingCNAME].[CompanyDomain].com.</t>
+  </si>
+  <si>
+    <t>• Contact Marketo Support to secure it with an SSL Certificate provision. This process can take up to 3 business days to complete.</t>
+  </si>
+  <si>
+    <t>How to submit an Admin Console support ticket</t>
+  </si>
+  <si>
     <t>• Initiate communication limits.</t>
   </si>
   <si>
@@ -787,6 +815,9 @@
   </si>
   <si>
     <t>SFDC Sync: Custom Object Sync</t>
+  </si>
+  <si>
+    <t>• Initiate CRM Sync. Choose from the following, depending on the CRM your company uses: Salesforce | Microsoft Dynamics.</t>
   </si>
   <si>
     <t>• Identify the type of access you need to access your CRM.</t>
@@ -1122,9 +1153,6 @@
     <t>Notify Your Marketing Team</t>
   </si>
   <si>
-    <t>Contact Marketo Support to start the process of provisioning an SSL Certificate.</t>
-  </si>
-  <si>
     <t>Allowlist Marketo Engage Ips</t>
   </si>
   <si>
@@ -1145,6 +1173,241 @@
   </si>
   <si>
     <t xml:space="preserve">• If not, contact Adobe Account team or send an email to customercare@marketo.com to find out who at your organization has Adobe Admin Console System Admin privileges. </t>
+  </si>
+  <si>
+    <t>Contact Adobe Customer Support to start the process of provisioning an SSL Certificate.</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Organization: Naming, folders, and archiving</t>
+  </si>
+  <si>
+    <t>• Identify reports that should be shared with different user groups within your organization (e.g., sales team, marketing leadership) and organize the reports by folder inside the Group Reports folder in Analytics for Global Reports.</t>
+  </si>
+  <si>
+    <t>Workspaces (if applicable)</t>
+  </si>
+  <si>
+    <t>• Replicate the Global Reports and folder structure across workspaces to maintain consistent reporting for your teams. These reports would be in the Group Reports folder.</t>
+  </si>
+  <si>
+    <t>My Reports</t>
+  </si>
+  <si>
+    <t>• Identify and create the reports needed for use in the My Reports section. Use this private report section as your sandbox for Global Reports. They're are only available to the user creating the report.</t>
+  </si>
+  <si>
+    <t>Understanding My Reports and Group Reports</t>
+  </si>
+  <si>
+    <t>• Use your organization's naming convention to identify the report and usage so you can reconcile reports in My Reports with reports in Group Reports.</t>
+  </si>
+  <si>
+    <t>Group Reports</t>
+  </si>
+  <si>
+    <t>Report Email, Campaign Performance Across Workspaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Group Reports are your organization's Global Reports and should report on overall activity for your organization.
+</t>
+  </si>
+  <si>
+    <t>• Consider creating the following cloneable core reports you expect each business unit to use most often to reduce the time needed to pull the report and ensure data correctness. See details in the Global Reports table below. 
+- People Performance Report (all-time and time-based) by source, month
+- Program Performance Report (by cost month, time-based)
+- Email Performance Report (time-based)</t>
+  </si>
+  <si>
+    <t>Clone a Report to Group Reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Turn on "Global Reporting" in the report's Setup tab to include the data from all your workspaces in the Email Performance and Email Link Performance reports. If you have more than one workspace, you only need to enable it in the default workspace.
+</t>
+  </si>
+  <si>
+    <t>☛TIP: Create the Smart List with the filters that you want to include in most of your reports in the Database section. When you need to update the Smart List criteria, you could update it in one place instead of updating it in all the Global Reports.</t>
+  </si>
+  <si>
+    <t>Subscriptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subscriptions	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Align with your marketing leader regarding people who should review report results and their cadence during implementation.
+</t>
+  </si>
+  <si>
+    <t>• Use subscriptions to distribute data to need-to-know people in your organization without exhausting a named user license.</t>
+  </si>
+  <si>
+    <t>• Set up subscriptions in the desired cadence (daily/weekly/monthly) for each team's ongoing monitoring. You can also view all your subscriptions in one place under the Subscriptions tab in Analytics.</t>
+  </si>
+  <si>
+    <t>Global Reports</t>
+  </si>
+  <si>
+    <t>People Performance Report</t>
+  </si>
+  <si>
+    <t>Program Performance Report</t>
+  </si>
+  <si>
+    <t>Landing Page Performance Report</t>
+  </si>
+  <si>
+    <t>Web Page Activity Report</t>
+  </si>
+  <si>
+    <t>• Create Global, Workspace/Business Unit-wide reports with the correct emails selected.</t>
+  </si>
+  <si>
+    <t>• Create a local Email Performance Report in all your cloneable program templates.</t>
+  </si>
+  <si>
+    <t>• Use a relevant timeframe (e.g., YTD, last 90 days, etc.) for the report to provide an accurate view of standard email engagement and deliverability metrics.</t>
+  </si>
+  <si>
+    <t>☛TIP: If you want people to access the real-time report data, you'll need to add them as users so they can view the report.</t>
+  </si>
+  <si>
+    <t>☛TIP: Turn on 'Bot Activity' filtering in Admin &gt; Email to avoid logging, or identify if logging is enabled for bot activities. Include the filter to allow only Opened/Clicked activities with the "Is Bot Activity" constrained set to "False" in the Smart List of your cloneable Global Reports.</t>
+  </si>
+  <si>
+    <t>Change a Report Time Frame</t>
+  </si>
+  <si>
+    <t>Filtering Email Bot Activity</t>
+  </si>
+  <si>
+    <t>Filtering email bot activity filters and triggers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">☛NOTE: It's recommended to have a proper channel and tag strategy for every Marketo Engage implementation before you can track the people acquired and the ROI of your marketing investments by channel.
+</t>
+  </si>
+  <si>
+    <t>• Determine the criteria you will use to measure the performance of your lead acquisition programs and create your time-based (current year, last rolling 12 months view, or 180 days) standard reports based on these metrics:
+- Acquisition Program: Marketo Engage program that is credited for acquiring the person.
+- Person Source: The source category for how the record came to be known to your database (based on the source list of values in your CRM)</t>
+  </si>
+  <si>
+    <t>• Measure people created by week or month. This report will provide you with a measure of your Database growth rate and whether you are approaching your Database size limit.</t>
+  </si>
+  <si>
+    <t>• Filter the metrics in People Performance Reports by using your Smart Lists as custom columns.</t>
+  </si>
+  <si>
+    <t>Understanding Tags</t>
+  </si>
+  <si>
+    <t>Add Custom Columns to a Person Report</t>
+  </si>
+  <si>
+    <t>☛TIP: Create Smart Lists for the custom columns you want to add to the People Performance Report in the Database instead of Marketing Activities so you can see the Smart List name properly and clearly when it's selected in the report.</t>
+  </si>
+  <si>
+    <t>☛NOTE: This report requires that you have your channels, progression statuses, and success steps defined in Admin &gt; Tags.</t>
+  </si>
+  <si>
+    <t>• Measure the effectiveness of your marketing tactics within selective programs.</t>
+  </si>
+  <si>
+    <t>Create a Program Performance Report</t>
+  </si>
+  <si>
+    <t>Using Period Costs in a Program</t>
+  </si>
+  <si>
+    <t>☛TIP: To aggregate and view any imported lists in the Program Performance Reports, ensure your teams select the appropriate Acquisition Program for tagging. Consider creating a default program to be selected as the Acquisition program when the lists imported don't apply to any channel. This ensures any person imported has a valid acquisition program related to source, business unit, channel, etc., instead of a blank value.</t>
+  </si>
+  <si>
+    <t>Create and measure a default program</t>
+  </si>
+  <si>
+    <t>• Manage program membership (using Smart Campaigns to update acquisition program, status, success statuses) according to best practices within Marketing Activities.</t>
+  </si>
+  <si>
+    <t>• Measure based on costs for the current year and rolling 12 months. Remember that maintaining Period Costs is critical to leveraging the Program Performance Report.</t>
+  </si>
+  <si>
+    <t>• Create the Landing Page Performance Report as a global report so you can filter and review the numbers of all your Design Studio/Marketing Activities Landing Pages in one place.</t>
+  </si>
+  <si>
+    <t>• For programs with Landing Page(s), consider creating a dedicated local report within the program template so you can review the performance at the program level.</t>
+  </si>
+  <si>
+    <t>Filter a Landing Page Performance Report</t>
+  </si>
+  <si>
+    <t>• Create the Web Page Activity Report as a global report so you can review the numbers of all your web pages in one place. Note that your external web page activities are only reflected in the Web Page Activity reports.</t>
+  </si>
+  <si>
+    <t>☛NOTE: Only web pages (external and Marketo Landing Pages) that have the Munchkin JavaScript enabled will be tracked in this report. Consider placing the JavaScript code in the Tag Management Platform, such as Google Tag Manager, to avoid hardcoding the code on every web page.</t>
+  </si>
+  <si>
+    <t>Integrating Munchkin with Google Tag Manager</t>
+  </si>
+  <si>
+    <t>Local Reports</t>
+  </si>
+  <si>
+    <t>Email Link Performance Report</t>
+  </si>
+  <si>
+    <t>• Create an Email Link Performance Report within programs sending emails and your drip campaigns to provide you with insights into the links people click on in your email sends.</t>
+  </si>
+  <si>
+    <t>Campaign Activity Report</t>
+  </si>
+  <si>
+    <t>• Create the Campaign Activity Report and choose a period within your operational folder in Marketing Activities.</t>
+  </si>
+  <si>
+    <t>• Set up reports to monitor the triggers for each use case and apply campaign filters (e.g., Behavior Scoring triggers, Lifecycle qualification triggers, Interesting Moments triggers).</t>
+  </si>
+  <si>
+    <t>Filter a Campaign Activity Report</t>
+  </si>
+  <si>
+    <t>Engagement Stream Performance Report (if applicable)</t>
+  </si>
+  <si>
+    <t>• Create an Engagement Stream Performance Report to measure the effectiveness of content and stream deployed within your Engagement Program.</t>
+  </si>
+  <si>
+    <t>Engagement Stream Performance Report</t>
+  </si>
+  <si>
+    <t>• Consider using the "Segmentation" filter in the report's Setup tab and grouping the reporting data by the segment (e.g., person source, industry) used in your Engagement Program. This will help get deeper insights into each segment's engagement patterns, guiding you to make strategic changes to improve your Engagement program (content, stream, stream cadence, etc.).</t>
+  </si>
+  <si>
+    <t>Group Email Reports by Segmentations</t>
+  </si>
+  <si>
+    <t>Create a Segmentation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• Use a report naming convention to differentiate reports in the Global Reports tab.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="AdobeClean-Regular"/>
+      </rPr>
+      <t>An example of good naming convention practice is [Report Type] [Global vs. BU-Specific Tag] [Report Description] such as [Email Performance]-[Global]-[180 Days Email Engagement].</t>
+    </r>
+  </si>
+  <si>
+    <t>• Archiving should be limited to the Global Reports folder, as these are always-on reports. 
+- Limit archiving to organizational changes such as reducing or adding relevant business units if you are reporting based on a business unit structure.</t>
   </si>
 </sst>
 </file>
@@ -1286,14 +1549,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1340,6 +1600,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1364,9 +1627,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1394,149 +1654,158 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1790,7 +2059,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1823,30 +2092,30 @@
       <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -1860,7 +2129,7 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -1874,7 +2143,7 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -1888,7 +2157,7 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -1896,7 +2165,7 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1904,7 +2173,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -1912,7 +2181,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
@@ -1920,7 +2189,7 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -1928,7 +2197,7 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -1936,7 +2205,7 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
@@ -1966,13 +2235,13 @@
   </sheetPr>
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A15" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="15" customWidth="1"/>
     <col min="2" max="2" width="53" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
@@ -1981,87 +2250,87 @@
     <col min="7" max="7" width="8.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.28515625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" style="11" customWidth="1"/>
     <col min="11" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
     </row>
     <row r="2" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
-        <v>318</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
+      <c r="A2" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
     </row>
     <row r="3" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>117</v>
+      <c r="B3" s="40" t="s">
+        <v>119</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>17</v>
@@ -2081,236 +2350,236 @@
       <c r="I3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="73" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="J4" s="10" t="s">
+      <c r="A4" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
-      <c r="B5" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>300</v>
+      <c r="A5" s="74"/>
+      <c r="B5" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
-      <c r="B6" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="J6" s="10" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="72" t="s">
-        <v>285</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>301</v>
+      <c r="A7" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="J8" s="10"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:30" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="72"/>
-      <c r="B9" s="9" t="s">
-        <v>288</v>
+      <c r="A9" s="75"/>
+      <c r="B9" s="8" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="J10" s="10" t="str">
+      <c r="B10" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="J10" s="9" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/marketo-with-adobe-identity/add-or-remove-a-user.html","Add or Remove a User in Adobe Admin Console")</f>
         <v>Add or Remove a User in Adobe Admin Console</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="9" t="s">
-        <v>290</v>
+      <c r="A11" s="75"/>
+      <c r="B11" s="8" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="72"/>
-      <c r="B12" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="J12" s="10" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="75"/>
+      <c r="B13" s="8" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="72"/>
-      <c r="B13" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="75"/>
+      <c r="B14" s="8" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="72"/>
-      <c r="B14" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="B15" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="75"/>
+      <c r="B16" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="75" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="72"/>
-      <c r="B16" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="72" t="s">
-        <v>294</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>249</v>
+      <c r="B17" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="72"/>
-      <c r="B18" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>305</v>
+      <c r="A18" s="75"/>
+      <c r="B18" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="72"/>
-      <c r="B19" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="J19" s="10"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="J20" s="10"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="70" t="s">
-        <v>306</v>
-      </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-      <c r="AC21" s="21"/>
-      <c r="AD21" s="21"/>
+      <c r="A21" s="72" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
     </row>
     <row r="22" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="21"/>
+      <c r="A22" s="64" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
     </row>
     <row r="23" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="41" t="s">
-        <v>117</v>
+      <c r="B23" s="40" t="s">
+        <v>119</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>17</v>
@@ -2330,109 +2599,109 @@
       <c r="I23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K23" s="28"/>
     </row>
     <row r="24" spans="1:30" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="73" t="s">
-        <v>307</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>300</v>
+      <c r="A24" s="74" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:30" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="73"/>
-      <c r="B25" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>314</v>
+      <c r="A25" s="74"/>
+      <c r="B25" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="72" t="s">
-        <v>285</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="J26" s="19"/>
+      <c r="A26" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:30" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="72"/>
-      <c r="B27" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>315</v>
+      <c r="A27" s="75"/>
+      <c r="B27" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="72"/>
-      <c r="B28" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="J28" s="19" t="s">
-        <v>316</v>
+      <c r="A28" s="75"/>
+      <c r="B28" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="J28" s="18" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>317</v>
+      <c r="B29" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="72"/>
-      <c r="B30" s="9" t="s">
-        <v>313</v>
+      <c r="A30" s="75"/>
+      <c r="B30" s="8" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="72"/>
-      <c r="B31" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="J31" s="10"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="70" t="s">
-        <v>320</v>
-      </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
+      <c r="A33" s="72" t="s">
+        <v>330</v>
+      </c>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="41" t="s">
-        <v>117</v>
+      <c r="B34" s="40" t="s">
+        <v>119</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>17</v>
@@ -2452,38 +2721,43 @@
       <c r="I34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K34" s="28"/>
     </row>
     <row r="35" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="J35" s="10" t="str">
+      <c r="A35" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="J35" s="9" t="str">
         <f>HYPERLINK("https://nation.marketo.com/t5/knowledgebase/how-to-subscribe-to-status-page-notifications/ta-p/296749","How to Subscribe to Status Page Notifications")</f>
         <v>How to Subscribe to Status Page Notifications</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>79</v>
+      <c r="A36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A2:J2"/>
     <mergeCell ref="A33:J33"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
@@ -2491,11 +2765,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A2:J2"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{56757DF8-A399-0F41-9F3A-E50DF6C557B9}">
@@ -2535,16 +2804,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD76"/>
+  <dimension ref="A1:AD82"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="53" style="15" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="53" style="14" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="2" customWidth="1"/>
@@ -2552,53 +2821,53 @@
     <col min="7" max="7" width="8.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="46.7109375" style="11" customWidth="1"/>
     <col min="11" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
     </row>
     <row r="2" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>117</v>
+      <c r="B2" s="40" t="s">
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -2618,118 +2887,118 @@
       <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:30" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="J3" s="10"/>
+      <c r="B3" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="72"/>
-      <c r="B4" s="74" t="s">
-        <v>211</v>
-      </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="10" t="s">
+      <c r="A4" s="75"/>
+      <c r="B4" s="79" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="75"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="75"/>
+      <c r="B6" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="J6" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="75"/>
+      <c r="B7" s="8" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="10" t="s">
+      <c r="C7" s="8"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="75"/>
+      <c r="B8" s="8" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="72"/>
-      <c r="B6" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="J6" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="72"/>
-      <c r="B7" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:30" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="J8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="J9" s="10" t="s">
+      <c r="B9" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="J9" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
     </row>
     <row r="12" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
@@ -2749,72 +3018,72 @@
       <c r="I12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="73" t="s">
-        <v>219</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="J13" s="10" t="s">
+      <c r="A13" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="J13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="18"/>
+      <c r="K13" s="17"/>
     </row>
     <row r="14" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
-      <c r="B14" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="J14" s="10" t="str">
+      <c r="A14" s="74"/>
+      <c r="B14" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="J14" s="9" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/workspaces-and-person-partitions/allow-user-access-to-a-workspace.html","Allow User Access to Workspace")</f>
         <v>Allow User Access to Workspace</v>
       </c>
-      <c r="K14" s="18"/>
+      <c r="K14" s="17"/>
     </row>
     <row r="15" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="73"/>
-      <c r="B15" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="K15" s="18"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="K15" s="17"/>
     </row>
     <row r="16" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-    </row>
-    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="72" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>17</v>
@@ -2834,52 +3103,52 @@
       <c r="I18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="J19" s="10" t="str">
+      <c r="B19" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="J19" s="9" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/email-setup/enable-person-restrictions-for-smart-campaigns.html","Enable Person Restrictions for Smart Campaigns ")</f>
         <v xml:space="preserve">Enable Person Restrictions for Smart Campaigns </v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-    </row>
-    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="72" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="73"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>118</v>
+      <c r="C22" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>17</v>
@@ -2899,703 +3168,764 @@
       <c r="I22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="72" t="s">
+    <row r="23" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="75"/>
+      <c r="B24" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="J24" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="J25" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="3"/>
+      <c r="J26" s="22"/>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="J23" s="10" t="str">
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="J29" s="9" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/email-setup/enable-communication-limits.html","Enable Communication Limits")</f>
         <v>Enable Communication Limits</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="72"/>
-      <c r="B24" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="J25" s="10"/>
-    </row>
-    <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="70" t="s">
+    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="75"/>
+      <c r="B30" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="J30" s="9"/>
+    </row>
+    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-    </row>
-    <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="73"/>
+    </row>
+    <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B33" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C33" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="J33" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+    <row r="34" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="J28" s="10" t="str">
+      <c r="B34" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="J34" s="9" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/tags/create-a-program-channel.html","Create a Program Channel")</f>
         <v>Create a Program Channel</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+    <row r="35" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="J29" s="10" t="str">
+      <c r="B35" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="J35" s="9" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/tags/managing-tag-values.html","Managing Tag Values")</f>
         <v>Managing Tag Values</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="72" t="s">
+    <row r="36" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="J30" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="K30" s="18"/>
-    </row>
-    <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="72"/>
-      <c r="B31" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="J31" s="10" t="s">
+      <c r="B36" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="J36" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="K36" s="17"/>
+    </row>
+    <row r="37" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="75"/>
+      <c r="B37" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="J37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="3"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="18"/>
-    </row>
-    <row r="33" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="70" t="s">
+      <c r="K37" s="17"/>
+    </row>
+    <row r="38" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="3"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-    </row>
-    <row r="34" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
+    </row>
+    <row r="40" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B40" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C40" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J40" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="72" t="s">
+    <row r="41" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="J35" s="10" t="s">
+      <c r="B41" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="J41" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="18"/>
-    </row>
-    <row r="36" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="72"/>
-      <c r="B36" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="72"/>
-      <c r="B37" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="J37" s="10" t="s">
+      <c r="K41" s="17"/>
+    </row>
+    <row r="42" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="75"/>
+      <c r="B42" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="75"/>
+      <c r="B43" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="J43" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+    <row r="44" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="J38" s="10" t="str">
+      <c r="B44" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="J44" s="9" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/marketo-custom-activities/understanding-custom-activities.html","Understanding Custom Activities ")</f>
         <v xml:space="preserve">Understanding Custom Activities </v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="72" t="s">
+    <row r="45" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C39" s="22"/>
-      <c r="J39" s="10" t="str">
+      <c r="B45" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="J45" s="9" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/marketo-custom-objects/understanding-marketo-custom-objects.html","Understanding Marketo Custom Objects")</f>
         <v>Understanding Marketo Custom Objects</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="72"/>
-      <c r="B40" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="C40" s="22"/>
-      <c r="J40" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="J41" s="10"/>
-    </row>
-    <row r="42" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-    </row>
-    <row r="43" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="74" t="s">
-        <v>239</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="J44" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="72"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="29"/>
-      <c r="J45" s="10" t="s">
-        <v>242</v>
-      </c>
-    </row>
     <row r="46" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="72"/>
-      <c r="B46" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="C46" s="9"/>
+      <c r="A46" s="75"/>
+      <c r="B46" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" s="21"/>
       <c r="J46" s="10" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="72"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="J47" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="J47" s="9"/>
     </row>
     <row r="48" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="J48" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="73"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="73"/>
+    </row>
+    <row r="49" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="J50" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="75"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="29"/>
+      <c r="J51" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="75"/>
+      <c r="B52" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="J52" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="75"/>
+      <c r="B53" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="J53" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="75" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="J54" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="72"/>
-      <c r="B49" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="19"/>
-    </row>
-    <row r="50" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="19"/>
-    </row>
-    <row r="51" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="J51" s="10" t="str">
+    <row r="55" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A55" s="75"/>
+      <c r="B55" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="18"/>
+    </row>
+    <row r="56" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="18"/>
+    </row>
+    <row r="57" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="J57" s="9" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/settings/edit-landing-page-settings.html","Edit Landing Page Settings")</f>
         <v>Edit Landing Page Settings</v>
       </c>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-    </row>
-    <row r="52" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="72"/>
-      <c r="B52" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-    </row>
-    <row r="53" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="72"/>
-      <c r="B53" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="J53" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="72"/>
-      <c r="B54" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="J54" s="11"/>
-    </row>
-    <row r="55" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="6" t="s">
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+    </row>
+    <row r="58" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="75"/>
+      <c r="B58" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+    </row>
+    <row r="59" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="75"/>
+      <c r="B59" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="40"/>
-    </row>
-    <row r="56" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56" s="74" t="s">
-        <v>250</v>
-      </c>
-      <c r="C56" s="75"/>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="76"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="10" t="s">
+      <c r="C59" s="8"/>
+      <c r="J59" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="75"/>
+      <c r="B60" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="38"/>
+      <c r="J61" s="39"/>
+    </row>
+    <row r="62" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="75" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="72"/>
-      <c r="B57" s="74"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="10" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="J58" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="K58" s="18"/>
-    </row>
-    <row r="59" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="C59" s="15"/>
-      <c r="J59" s="10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
+      <c r="B62" s="79" t="s">
         <v>260</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="C62" s="76"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="75"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C60" s="15"/>
-      <c r="J60" s="10" t="s">
+    </row>
+    <row r="64" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="B61" s="15" t="s">
+      <c r="B64" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C61" s="15"/>
-      <c r="J61" s="10" t="s">
+      <c r="C64" s="8"/>
+      <c r="J64" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="K64" s="17"/>
+    </row>
+    <row r="65" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B65" s="14" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="77"/>
-      <c r="B62" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="C62" s="15"/>
-      <c r="J62" s="10" t="s">
+      <c r="C65" s="14"/>
+      <c r="J65" s="9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="77"/>
-      <c r="B63" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="J63" s="23" t="s">
+    <row r="66" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="K63" s="19"/>
-    </row>
-    <row r="64" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="77"/>
-      <c r="B64" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="C64" s="15"/>
-      <c r="J64" s="10" t="s">
+      <c r="B66" s="14" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="77" t="s">
+      <c r="C66" s="14"/>
+      <c r="J66" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B65" s="15" t="s">
+    </row>
+    <row r="67" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="78" t="s">
+        <v>277</v>
+      </c>
+      <c r="B67" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="J65" s="10" t="s">
+      <c r="C67" s="14"/>
+      <c r="J67" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C68" s="14"/>
+      <c r="J68" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="78"/>
+      <c r="B69" s="14" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="77"/>
-      <c r="B66" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="C66" s="15"/>
-      <c r="J66" s="10" t="s">
+      <c r="C69" s="14"/>
+      <c r="J69" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="K69" s="18"/>
+    </row>
+    <row r="70" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="78"/>
+      <c r="B70" s="14" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="J67" s="10" t="s">
+      <c r="C70" s="14"/>
+      <c r="J70" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="78" t="s">
+        <v>282</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="J71" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="78"/>
+      <c r="B72" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" s="14"/>
+      <c r="J72" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K67" s="18"/>
-    </row>
-    <row r="68" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="24"/>
-      <c r="B68" s="42"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="26"/>
-    </row>
-    <row r="69" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="70" t="s">
+      <c r="B73" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="J73" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="71"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="71"/>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71"/>
-      <c r="H69" s="71"/>
-      <c r="I69" s="71"/>
-      <c r="J69" s="71"/>
-    </row>
-    <row r="70" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
+      <c r="K73" s="17"/>
+    </row>
+    <row r="74" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="24"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="26"/>
+    </row>
+    <row r="75" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="73"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="73"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="73"/>
+      <c r="J75" s="73"/>
+    </row>
+    <row r="76" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="B76" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J76" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="J71" s="10" t="str">
+    <row r="77" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="J77" s="9" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/administration/settings/enable-or-disable-treasure-chest-features.html","Enable or Disable Treasure Chest Features")</f>
         <v>Enable or Disable Treasure Chest Features</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="72"/>
-      <c r="B72" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C72" s="9"/>
-      <c r="J72" s="10"/>
-    </row>
-    <row r="73" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C73" s="9"/>
-      <c r="J73" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="75"/>
+      <c r="B78" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="J78" s="9"/>
+    </row>
+    <row r="79" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="J79" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A51:A54"/>
+  <mergeCells count="40">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A17:J17"/>
@@ -3608,48 +3938,77 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A48:J48"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A39:J39"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="A75:J75"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F61:F1048576 F58 F1:F4 F6:F56" xr:uid="{1C882D54-F374-7245-A674-094BF749AE2C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F67:F1048576 F6:F62 F64 F1:F4" xr:uid="{1C882D54-F374-7245-A674-094BF749AE2C}">
       <formula1>"Low (0-4 hours), Medium (4.5-15 hours), High (15+ hours)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G61:G1048576 G58 G1:G4 G6:G56" xr:uid="{7BC5869C-AB0E-6945-B5A1-392F37E295EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G67:G1048576 G6:G62 G64 G1:G4" xr:uid="{7BC5869C-AB0E-6945-B5A1-392F37E295EB}">
       <formula1>"Complete, In Progress, Not Started"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E61:E1048576 E58 E1:E4 E6:E56" xr:uid="{B643AA06-DCF2-EF48-9E18-B3B544E712A3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67:E1048576 E6:E62 E64 E1:E4" xr:uid="{B643AA06-DCF2-EF48-9E18-B3B544E712A3}">
       <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="J13" r:id="rId1" xr:uid="{86691E27-9D5B-D146-8D37-90FB2B721633}"/>
-    <hyperlink ref="J31" r:id="rId2" xr:uid="{54DF5E72-5AA9-3F41-8F92-3C73F7610383}"/>
-    <hyperlink ref="J35" r:id="rId3" xr:uid="{ED0325FE-7A70-0645-8B80-1D358A74DCA9}"/>
-    <hyperlink ref="J46" r:id="rId4" xr:uid="{21E75FFD-1447-924E-8B64-64E7A9B3F132}"/>
+    <hyperlink ref="J37" r:id="rId2" xr:uid="{54DF5E72-5AA9-3F41-8F92-3C73F7610383}"/>
+    <hyperlink ref="J41" r:id="rId3" xr:uid="{ED0325FE-7A70-0645-8B80-1D358A74DCA9}"/>
+    <hyperlink ref="J52" r:id="rId4" xr:uid="{21E75FFD-1447-924E-8B64-64E7A9B3F132}"/>
     <hyperlink ref="J9" r:id="rId5" xr:uid="{16157F07-4C2E-3440-A3C9-97E1ACE7F839}"/>
-    <hyperlink ref="J47" r:id="rId6" xr:uid="{74D6B971-3396-0742-B01F-BAE294ECD3CA}"/>
-    <hyperlink ref="J56" r:id="rId7" xr:uid="{C7E8BF57-9587-D44F-B42F-C04A4FD1E027}"/>
-    <hyperlink ref="J67" r:id="rId8" xr:uid="{0FB20D94-AB74-D740-8380-454AB2DABA05}"/>
+    <hyperlink ref="J53" r:id="rId6" xr:uid="{74D6B971-3396-0742-B01F-BAE294ECD3CA}"/>
+    <hyperlink ref="J62" r:id="rId7" xr:uid="{C7E8BF57-9587-D44F-B42F-C04A4FD1E027}"/>
+    <hyperlink ref="J73" r:id="rId8" xr:uid="{0FB20D94-AB74-D740-8380-454AB2DABA05}"/>
     <hyperlink ref="J6" r:id="rId9" location="assign-roles-to-a-user" xr:uid="{6ADF3D7C-AF41-8F49-857F-58EA5809F4C2}"/>
     <hyperlink ref="J4" r:id="rId10" location="create-a-new-role" xr:uid="{57947700-F373-D24F-851E-DD4DE0B4F391}"/>
     <hyperlink ref="J5" r:id="rId11" location="edit-a-role" xr:uid="{16EC1A66-EEFE-EC43-B28B-9025DF0E9CE9}"/>
-    <hyperlink ref="J30" r:id="rId12" location="_blank" xr:uid="{A6479F24-E785-704D-AC72-0E6CB3EF30F3}"/>
-    <hyperlink ref="J37" r:id="rId13" location="_blank" xr:uid="{0570346F-627B-DA48-8903-33103B04AE43}"/>
-    <hyperlink ref="J44" r:id="rId14" location="_blank" xr:uid="{523374A8-E907-DA45-BD4E-0961FC8F7751}"/>
-    <hyperlink ref="J45" r:id="rId15" location="_blank" xr:uid="{16B878A0-1FF7-F74A-BA52-AA6D9A6EF27F}"/>
-    <hyperlink ref="J48" r:id="rId16" location="_blank" xr:uid="{93CA76E5-0703-2D42-93FF-531B9C76ABBA}"/>
-    <hyperlink ref="J53" r:id="rId17" location="create-a-support-ticket-with-admin-console" xr:uid="{258DD748-0024-8742-8975-B275B612E2FC}"/>
-    <hyperlink ref="J57" r:id="rId18" xr:uid="{0AB241EE-87E9-A045-BAA3-5ECC1E012F48}"/>
-    <hyperlink ref="J58" r:id="rId19" location="_blank" xr:uid="{06B8A6A0-2800-EC4A-801A-BAD518AEFDF8}"/>
-    <hyperlink ref="J59" r:id="rId20" xr:uid="{0AE228BD-77EA-4D45-9BA2-A861EB074AA7}"/>
-    <hyperlink ref="J60" r:id="rId21" location="add-dynamic-chat-access-to-marketo-role" xr:uid="{4613FC58-7BB2-BF44-BA6E-9B4E0D7DEDEF}"/>
-    <hyperlink ref="J61" r:id="rId22" location="set-up-marketo-sales-account" xr:uid="{B33FA31E-D90C-8440-A607-C70DDA5280BA}"/>
-    <hyperlink ref="J62" r:id="rId23" location="invite-individual-users-to-msi-actions" xr:uid="{26D598E5-B19C-AB48-A489-DA0B6EE8D5E8}"/>
-    <hyperlink ref="J63" r:id="rId24" location="_blank" xr:uid="{1D28E904-A062-584C-BD7E-A6EF5C7DA6EA}"/>
-    <hyperlink ref="J64" r:id="rId25" location="relative-score" xr:uid="{1222A5AB-CA00-1445-BF9F-333838D3F624}"/>
-    <hyperlink ref="J65" r:id="rId26" location="_blank" xr:uid="{E10D3A4F-C676-234E-B5A3-ED7D6CB2D9AC}"/>
-    <hyperlink ref="J66" r:id="rId27" location="inviting-and-managing-users" xr:uid="{D855DDC0-CBCF-F741-BC99-960D4CCEDCBA}"/>
-    <hyperlink ref="J73" r:id="rId28" location="enable-campaign-inspector" xr:uid="{08751937-240F-324B-A7CF-27CD354B3792}"/>
+    <hyperlink ref="J24" r:id="rId12" location="submit-ticket" xr:uid="{05F8F1A4-49D5-1547-84BE-824DF1051936}"/>
+    <hyperlink ref="J25" r:id="rId13" location="_blank" xr:uid="{AB8AD707-F608-0144-A213-53B7AC39F960}"/>
+    <hyperlink ref="J36" r:id="rId14" location="_blank" xr:uid="{A6479F24-E785-704D-AC72-0E6CB3EF30F3}"/>
+    <hyperlink ref="J43" r:id="rId15" location="_blank" xr:uid="{0570346F-627B-DA48-8903-33103B04AE43}"/>
+    <hyperlink ref="J50" r:id="rId16" location="_blank" xr:uid="{523374A8-E907-DA45-BD4E-0961FC8F7751}"/>
+    <hyperlink ref="J51" r:id="rId17" location="_blank" xr:uid="{16B878A0-1FF7-F74A-BA52-AA6D9A6EF27F}"/>
+    <hyperlink ref="J54" r:id="rId18" location="_blank" xr:uid="{93CA76E5-0703-2D42-93FF-531B9C76ABBA}"/>
+    <hyperlink ref="J59" r:id="rId19" location="create-a-support-ticket-with-admin-console" xr:uid="{258DD748-0024-8742-8975-B275B612E2FC}"/>
+    <hyperlink ref="J63" r:id="rId20" xr:uid="{0AB241EE-87E9-A045-BAA3-5ECC1E012F48}"/>
+    <hyperlink ref="J64" r:id="rId21" location="_blank" xr:uid="{06B8A6A0-2800-EC4A-801A-BAD518AEFDF8}"/>
+    <hyperlink ref="J65" r:id="rId22" xr:uid="{0AE228BD-77EA-4D45-9BA2-A861EB074AA7}"/>
+    <hyperlink ref="J66" r:id="rId23" location="add-dynamic-chat-access-to-marketo-role" xr:uid="{4613FC58-7BB2-BF44-BA6E-9B4E0D7DEDEF}"/>
+    <hyperlink ref="J67" r:id="rId24" location="set-up-marketo-sales-account" xr:uid="{B33FA31E-D90C-8440-A607-C70DDA5280BA}"/>
+    <hyperlink ref="J68" r:id="rId25" location="invite-individual-users-to-msi-actions" xr:uid="{26D598E5-B19C-AB48-A489-DA0B6EE8D5E8}"/>
+    <hyperlink ref="J69" r:id="rId26" location="_blank" xr:uid="{1D28E904-A062-584C-BD7E-A6EF5C7DA6EA}"/>
+    <hyperlink ref="J70" r:id="rId27" location="relative-score" xr:uid="{1222A5AB-CA00-1445-BF9F-333838D3F624}"/>
+    <hyperlink ref="J71" r:id="rId28" location="_blank" xr:uid="{E10D3A4F-C676-234E-B5A3-ED7D6CB2D9AC}"/>
+    <hyperlink ref="J72" r:id="rId29" location="inviting-and-managing-users" xr:uid="{D855DDC0-CBCF-F741-BC99-960D4CCEDCBA}"/>
+    <hyperlink ref="J79" r:id="rId30" location="enable-campaign-inspector" xr:uid="{08751937-240F-324B-A7CF-27CD354B3792}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3663,14 +4022,14 @@
   </sheetPr>
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="16" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="21" style="15" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="14" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="2"/>
     <col min="4" max="4" width="40.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.140625" style="2" customWidth="1"/>
@@ -3678,33 +4037,33 @@
     <col min="7" max="7" width="7.140625" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" style="2"/>
-    <col min="10" max="10" width="24.28515625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="11" customWidth="1"/>
     <col min="11" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="A1" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>17</v>
@@ -3724,140 +4083,140 @@
       <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>194</v>
+      <c r="A3" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="72"/>
-      <c r="B4" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="J4" s="10" t="str">
+      <c r="A4" s="75"/>
+      <c r="B4" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="9" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-lists-and-static-lists/managing-people-in-smart-lists/database-dashboard.html","Database Dashboard")</f>
         <v>Database Dashboard</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="J5" s="10" t="str">
+      <c r="A5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" s="9" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-lists-and-static-lists/managing-people-in-smart-lists/add-person-to-blocklist.html","Add Person to Blocklist")</f>
         <v>Add Person to Blocklist</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>64</v>
+      <c r="A6" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>198</v>
+      <c r="A7" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="J8" s="10" t="str">
+      <c r="A8" s="75"/>
+      <c r="B8" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" s="9" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/email-marketing/deliverability/hard-and-soft-bounces-in-email.html","Hard and Soft Bounces in Emails")</f>
         <v>Hard and Soft Bounces in Emails</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>200</v>
+      <c r="A9" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="72"/>
-      <c r="B10" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="J10" s="10" t="str">
+      <c r="A10" s="75"/>
+      <c r="B10" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="J10" s="9" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-lists-and-static-lists/managing-people-in-smart-lists/find-and-merge-duplicate-people.html","Find and Merge Duplicate People")</f>
         <v>Find and Merge Duplicate People</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="J11" s="10"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="J12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="B12" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="J13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>63</v>
       </c>
+      <c r="B13" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="70" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
+      <c r="A15" s="72" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>17</v>
@@ -3877,16 +4236,16 @@
       <c r="I16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="72" t="s">
-        <v>206</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>207</v>
+      <c r="A17" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -3895,12 +4254,12 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="10"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="72"/>
-      <c r="B18" s="9" t="s">
-        <v>208</v>
+      <c r="A18" s="75"/>
+      <c r="B18" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -3909,11 +4268,11 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="10"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -3921,31 +4280,31 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="13"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
+      <c r="A20" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="73"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>17</v>
@@ -3965,18 +4324,18 @@
       <c r="I21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="J22" s="10" t="str">
+      <c r="A22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" s="9" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/personalization/segmentation-and-snippets/segmentation/create-a-segmentation.html","Create a Segmentation")</f>
         <v>Create a Segmentation</v>
       </c>
@@ -4012,713 +4371,1248 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="37" style="32" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="44"/>
+    <col min="4" max="4" width="30.7109375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="8" style="44" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="44" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="44" customWidth="1"/>
+    <col min="10" max="10" width="34.42578125" style="44" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="44"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="82"/>
+      <c r="B4" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="47"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+    </row>
+    <row r="6" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="80"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J8" s="47"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="47"/>
+    </row>
+    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" s="47"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="31"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="47" t="str">
+        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/email-marketing/general/creating-an-email/create-an-email.html","Create an Email")</f>
+        <v>Create an Email</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" s="47" t="str">
+        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/email-marketing/general/email-editor-2/create-an-email-template.html","Create an Email Template")</f>
+        <v>Create an Email Template</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="80"/>
+      <c r="B19" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="47"/>
+    </row>
+    <row r="20" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="J20" s="47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="80"/>
+      <c r="B21" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" s="47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="31"/>
+      <c r="J22" s="47"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="47"/>
+    </row>
+    <row r="26" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="31"/>
+      <c r="J26" s="47"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="161.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="J29" s="47" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="51"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="J33" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="31"/>
+      <c r="J34" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="E6:E7"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6 F8:F1048576" xr:uid="{5FC96A82-C114-0A4B-9010-CCC01D2860A5}">
+      <formula1>"Low (0-4 hours), Medium (4.5-15 hours), High (15+ hours)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G6 G8:G1048576" xr:uid="{B0734C5B-72F7-CA4C-9AA4-11DB93A961CC}">
+      <formula1>"Complete, In Progress, Not Started"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E6 E8:E1048576" xr:uid="{DFE44862-FA05-7443-BE34-2CB8B39BE5D6}">
+      <formula1>"High, Medium, Low"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1" xr:uid="{E44724B8-FBFC-7A4E-B8E5-BD2A0FCA88B9}"/>
+    <hyperlink ref="J11" r:id="rId2" xr:uid="{83D382BA-7331-DD47-9615-05D275EF6D24}"/>
+    <hyperlink ref="J13" r:id="rId3" xr:uid="{6A013B46-D3E0-394F-900E-2A6CC5CB2B81}"/>
+    <hyperlink ref="J25" r:id="rId4" xr:uid="{CA97A72F-002F-0240-8B92-0362CFF05818}"/>
+    <hyperlink ref="J29" r:id="rId5" xr:uid="{429BDEA3-9FF8-3948-AF0C-E4704825D6E6}"/>
+    <hyperlink ref="J12" r:id="rId6" xr:uid="{961E659F-8DFA-3749-8EC2-A1B1E4D2AE18}"/>
+    <hyperlink ref="J4" r:id="rId7" xr:uid="{6F09405B-F37E-324E-97E1-99AB485928CF}"/>
+    <hyperlink ref="J6" r:id="rId8" xr:uid="{1215C7CD-BF0B-4A4C-9797-6B9B84D1D83A}"/>
+    <hyperlink ref="J7" r:id="rId9" location="add-a-token-to-your-landing-page" xr:uid="{248B4C6A-5652-DB47-B901-C6F502188500}"/>
+    <hyperlink ref="J21" r:id="rId10" xr:uid="{D9A45310-A5D8-9E45-97A4-61729A640589}"/>
+    <hyperlink ref="J20" r:id="rId11" xr:uid="{5F86B27F-7C8D-AA4B-A46C-2F00FAE6447C}"/>
+    <hyperlink ref="J33" r:id="rId12" xr:uid="{47FB7783-69D9-7647-9806-62A4A16F21A8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="46"/>
-    <col min="4" max="4" width="29.28515625" style="46" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="7" style="46" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="46" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="38" style="52" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="46"/>
+    <col min="1" max="1" width="21.85546875" style="70" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="44"/>
+    <col min="4" max="4" width="29.28515625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="7" style="44" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="44" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" style="44" customWidth="1"/>
+    <col min="10" max="10" width="38" style="49" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
+      <c r="A1" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
     </row>
     <row r="2" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="45" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="36" t="s">
-        <v>73</v>
+      <c r="A3" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="49"/>
+        <v>140</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="47"/>
     </row>
     <row r="4" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>75</v>
+      <c r="A4" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="J4" s="55" t="str">
+        <v>141</v>
+      </c>
+      <c r="J4" s="52" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/en/docs/marketo/using/product-docs/core-marketo-concepts/programs/working-with-programs/best-practice-how-to-organize-your-programs#folders","Understanding Folders")</f>
         <v>Understanding Folders</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="78" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="63" t="s">
+    <row r="5" spans="1:12" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" s="58"/>
+    </row>
+    <row r="6" spans="1:12" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="74"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="58"/>
+    </row>
+    <row r="7" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="74"/>
+      <c r="B7" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="L5" s="64"/>
-    </row>
-    <row r="6" spans="1:12" s="33" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="63" t="s">
+      <c r="J7" s="52" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="74"/>
+      <c r="B8" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="52"/>
+    </row>
+    <row r="9" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="60" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="60" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="91"/>
+      <c r="B16" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="64"/>
-    </row>
-    <row r="7" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="78"/>
-      <c r="B7" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="J7" s="55" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="J8" s="55"/>
-    </row>
-    <row r="9" spans="1:12" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+    </row>
+    <row r="17" spans="1:11" s="60" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="91"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="J9" s="55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="J10" s="55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80"/>
-    </row>
-    <row r="13" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="84" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="56" t="s">
+    </row>
+    <row r="18" spans="1:11" s="60" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="91"/>
+      <c r="B18" s="34" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" s="66" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84"/>
-      <c r="B16" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="84"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="66" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="84"/>
-      <c r="B18" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="56" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="53" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="60" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="91"/>
+      <c r="B19" s="86" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" s="66" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="84"/>
-      <c r="B19" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="56" t="s">
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="60" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="91"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="60" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="91"/>
+      <c r="B21" s="34" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="84"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="56" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="66" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="84"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="67"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="61"/>
     </row>
     <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="78" t="s">
-        <v>81</v>
+      <c r="A22" s="74" t="s">
+        <v>82</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="J22" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="K22" s="49"/>
+        <v>159</v>
+      </c>
+      <c r="J22" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="47"/>
     </row>
     <row r="23" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="78"/>
+      <c r="A23" s="74"/>
       <c r="B23" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="J23" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="K23" s="49"/>
+        <v>160</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="47"/>
     </row>
     <row r="24" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="78" t="s">
-        <v>83</v>
+      <c r="A24" s="74" t="s">
+        <v>84</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="J24" s="55" t="str">
+        <v>162</v>
+      </c>
+      <c r="J24" s="52" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-campaigns/creating-a-smart-campaign/understanding-batch-and-trigger-smart-campaigns.html?lang=en#batch-campaign","Batch Campaign")</f>
         <v>Batch Campaign</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="78"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="J25" s="57"/>
+        <v>163</v>
+      </c>
+      <c r="J25" s="54"/>
     </row>
     <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="78" t="s">
-        <v>84</v>
+      <c r="A26" s="74" t="s">
+        <v>85</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="J26" s="55" t="str">
+        <v>164</v>
+      </c>
+      <c r="J26" s="52" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/core-marketo-concepts/smart-campaigns/creating-a-smart-campaign/understanding-batch-and-trigger-smart-campaigns.html?lang=en#trigger-campaign","Trigger Campaign")</f>
         <v>Trigger Campaign</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="78"/>
+      <c r="A27" s="74"/>
       <c r="B27" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="J27" s="57"/>
+        <v>165</v>
+      </c>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="78" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="55" t="s">
-        <v>164</v>
+      <c r="A28" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="52" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="55" t="s">
-        <v>165</v>
+      <c r="A29" s="74"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="52" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="78" t="s">
-        <v>85</v>
+      <c r="A30" s="74" t="s">
+        <v>86</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="J30" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="K30" s="49"/>
+        <v>169</v>
+      </c>
+      <c r="J30" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" s="47"/>
     </row>
     <row r="31" spans="1:11" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="78"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="J31" s="68"/>
-      <c r="K31" s="49"/>
+        <v>170</v>
+      </c>
+      <c r="J31" s="62"/>
+      <c r="K31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="J32" s="55" t="s">
-        <v>170</v>
+      <c r="A32" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="J32" s="52" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="78" t="s">
-        <v>171</v>
-      </c>
-      <c r="B33" s="82" t="s">
-        <v>172</v>
-      </c>
-      <c r="J33" s="55" t="s">
-        <v>171</v>
+      <c r="A33" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="J33" s="52" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="78"/>
-      <c r="B34" s="82"/>
-      <c r="J34" s="55" t="s">
-        <v>173</v>
+      <c r="A34" s="74"/>
+      <c r="B34" s="90"/>
+      <c r="J34" s="52" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="78"/>
-      <c r="B35" s="82"/>
-      <c r="J35" s="55" t="s">
-        <v>174</v>
+      <c r="A35" s="74"/>
+      <c r="B35" s="90"/>
+      <c r="J35" s="52" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
+      <c r="A37" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="48" t="s">
+      <c r="B38" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E38" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="F38" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="48" t="s">
+      <c r="G38" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H38" s="48" t="s">
+      <c r="H38" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I38" s="48" t="s">
+      <c r="I38" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J38" s="48" t="s">
+      <c r="J38" s="46" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" s="78" t="s">
-        <v>175</v>
-      </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="55" t="s">
-        <v>177</v>
+      <c r="A39" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="52" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="78"/>
-      <c r="B40" s="78"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="81"/>
-      <c r="J40" s="55" t="s">
-        <v>178</v>
+      <c r="A40" s="74"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="52" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="78"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="J41" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="J41" s="52" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="78" t="s">
-        <v>90</v>
+      <c r="A42" s="74" t="s">
+        <v>91</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="J42" s="57"/>
+        <v>182</v>
+      </c>
+      <c r="J42" s="54"/>
     </row>
     <row r="43" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="78"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="J43" s="57" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="J43" s="54" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="78" t="s">
-        <v>91</v>
+      <c r="A44" s="74" t="s">
+        <v>92</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="J44" s="57"/>
+        <v>185</v>
+      </c>
+      <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="78"/>
+      <c r="A45" s="74"/>
       <c r="B45" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="J45" s="57" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="J45" s="54" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="78" t="s">
-        <v>92</v>
+      <c r="A46" s="74" t="s">
+        <v>93</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="J46" s="55"/>
+        <v>186</v>
+      </c>
+      <c r="J46" s="52"/>
     </row>
     <row r="47" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="78"/>
+      <c r="A47" s="74"/>
       <c r="B47" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="J47" s="55" t="s">
-        <v>185</v>
+        <v>187</v>
+      </c>
+      <c r="J47" s="52" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="36" t="s">
-        <v>93</v>
+      <c r="A48" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="J48" s="55" t="str">
+        <v>189</v>
+      </c>
+      <c r="J48" s="52" t="str">
         <f>HYPERLINK("https://business.adobe.com/resources/ebooks/the-gdpr-and-the-marketer.html","The GDPR and The Marketer: A Practical Guide for the Marketo Customer")</f>
         <v>The GDPR and The Marketer: A Practical Guide for the Marketo Customer</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="78" t="s">
-        <v>94</v>
+      <c r="A49" s="74" t="s">
+        <v>95</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>188</v>
-      </c>
-      <c r="J49" s="69"/>
+        <v>191</v>
+      </c>
+      <c r="J49" s="63"/>
     </row>
     <row r="50" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="78"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="J50" s="55" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="J50" s="52" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="36" t="s">
-        <v>98</v>
+      <c r="A51" s="16" t="s">
+        <v>100</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="J51" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="K51" s="49"/>
+        <v>194</v>
+      </c>
+      <c r="J51" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="K51" s="47"/>
     </row>
     <row r="52" spans="1:11" ht="93.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="36" t="s">
-        <v>97</v>
+      <c r="A52" s="16" t="s">
+        <v>99</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="J52" s="55" t="str">
+        <v>361</v>
+      </c>
+      <c r="J52" s="52" t="str">
         <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo-learn/tutorials/lead-and-data-management/subscription-center-watch.html","How to set up and manage a subscription center")</f>
         <v>How to set up and manage a subscription center</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="31" t="s">
-        <v>95</v>
+      <c r="A53" s="65" t="s">
+        <v>96</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="J53" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="K53" s="49"/>
+        <v>196</v>
+      </c>
+      <c r="J53" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="K53" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A30:A31"/>
@@ -4735,6 +5629,33 @@
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F41:F1048576 F18:F28 F1:F16 F30:F39" xr:uid="{2BF04E9C-9EAB-E54D-854E-D25E99B17194}">
@@ -4781,687 +5702,894 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BD37B3-CDC1-3E4A-912A-DB72E3F315F4}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A8" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A50" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="37" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="46"/>
-    <col min="4" max="4" width="30.7109375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="46" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="8" style="46" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" style="46" customWidth="1"/>
-    <col min="10" max="10" width="34.42578125" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="46"/>
+    <col min="1" max="1" width="18.140625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="44"/>
+    <col min="4" max="4" width="30.7109375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="8" style="44" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="44" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="44" customWidth="1"/>
+    <col min="10" max="10" width="43.140625" style="44" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="A1" s="67" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="85" t="s">
-        <v>99</v>
+    <row r="3" spans="1:11" ht="101.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="82" t="s">
+        <v>365</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="47"/>
+    </row>
+    <row r="4" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="82"/>
+      <c r="B4" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+    </row>
+    <row r="5" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="82"/>
+      <c r="B5" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="47"/>
+    </row>
+    <row r="6" spans="1:11" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+    </row>
+    <row r="7" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="82" t="s">
+        <v>369</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="82"/>
+      <c r="B8" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="J8" s="47"/>
+    </row>
+    <row r="9" spans="1:11" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="82" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="J9" s="47"/>
+    </row>
+    <row r="10" spans="1:11" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="82"/>
+      <c r="B10" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="82"/>
+      <c r="B11" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="82"/>
+      <c r="B12" s="31" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="47"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="67" t="s">
+        <v>380</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="J3" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="K3" s="49"/>
-    </row>
-    <row r="4" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="85"/>
-      <c r="B4" s="31" t="s">
+      <c r="C15" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" s="49"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-    </row>
-    <row r="6" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="85" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="51" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="86"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="49" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J8" s="49"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
+      <c r="D15" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="82" t="s">
+        <v>381</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+    </row>
+    <row r="17" spans="1:11" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="82"/>
+      <c r="B17" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="J17" s="47"/>
+    </row>
+    <row r="18" spans="1:11" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="82"/>
+      <c r="B18" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="J18" s="47"/>
+    </row>
+    <row r="19" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="82"/>
+      <c r="B19" s="85" t="s">
+        <v>384</v>
+      </c>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" s="47"/>
+    </row>
+    <row r="20" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="82"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" s="47"/>
+    </row>
+    <row r="21" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="65"/>
+      <c r="B21" s="31"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="48" t="s">
+      <c r="B23" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E23" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F23" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H23" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I23" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="J23" s="46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" s="49"/>
-    </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="J12" s="49" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="J13" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="K13" s="49"/>
-    </row>
-    <row r="14" spans="1:11" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="31"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
+    <row r="24" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="J24" s="47"/>
+    </row>
+    <row r="25" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="82"/>
+      <c r="B25" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="J25" s="47"/>
+    </row>
+    <row r="26" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="82"/>
+      <c r="B26" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="J26" s="47" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="82"/>
+      <c r="B27" s="85" t="s">
+        <v>394</v>
+      </c>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="82"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="47" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="82" t="s">
+        <v>386</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="J29" s="47" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="122.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="82"/>
+      <c r="B30" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="J30" s="47"/>
+    </row>
+    <row r="31" spans="1:11" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="82"/>
+      <c r="B31" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="J31" s="47"/>
+    </row>
+    <row r="32" spans="1:11" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="82"/>
+      <c r="B32" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="J32" s="47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="82"/>
+      <c r="B33" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="J33" s="47"/>
+    </row>
+    <row r="34" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="82" t="s">
+        <v>387</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="J34" s="47"/>
+    </row>
+    <row r="35" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="82"/>
+      <c r="B35" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="J35" s="47" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="82"/>
+      <c r="B36" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="J36" s="47"/>
+    </row>
+    <row r="37" spans="1:11" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="82"/>
+      <c r="B37" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="J37" s="47" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="82"/>
+      <c r="B38" s="85" t="s">
+        <v>409</v>
+      </c>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="82"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="47" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="J40" s="47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="44.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="82"/>
+      <c r="B41" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="J41" s="47" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="B42" s="85" t="s">
+        <v>417</v>
+      </c>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="82"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="84"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="82"/>
+      <c r="B44" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="J44" s="47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="65"/>
+      <c r="B45" s="31"/>
+      <c r="J45" s="47"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="67" t="s">
+        <v>419</v>
+      </c>
+      <c r="B46" s="42"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="48" t="s">
+      <c r="B47" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E47" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F47" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G47" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="H47" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I16" s="48" t="s">
+      <c r="I47" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="48" t="s">
+      <c r="J47" s="46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="J17" s="49" t="str">
-        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/email-marketing/general/creating-an-email/create-an-email.html","Create an Email")</f>
-        <v>Create an Email</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="86" t="s">
-        <v>101</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="J18" s="49" t="str">
-        <f>HYPERLINK("https://experienceleague.adobe.com/docs/marketo/using/product-docs/email-marketing/general/email-editor-2/create-an-email-template.html","Create an Email Template")</f>
-        <v>Create an Email Template</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="86"/>
-      <c r="B19" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="J19" s="49"/>
-    </row>
-    <row r="20" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="J20" s="49" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="86"/>
-      <c r="B21" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="J21" s="49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="31"/>
-      <c r="J22" s="49"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="J24" s="48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="J25" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25" s="49"/>
-    </row>
-    <row r="26" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="31"/>
-      <c r="J26" s="49"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="45"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28" s="48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="161.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="J29" s="49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J30" s="54"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="J33" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-    </row>
-    <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="31"/>
-      <c r="J34" s="54"/>
+    <row r="48" spans="1:11" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="65" t="s">
+        <v>420</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="J48" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="K48" s="47"/>
+    </row>
+    <row r="49" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="82" t="s">
+        <v>422</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="J49" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="K49" s="47"/>
+    </row>
+    <row r="50" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="82"/>
+      <c r="B50" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="J50" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="K50" s="47"/>
+    </row>
+    <row r="51" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="74" t="s">
+        <v>426</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="J51" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="K51" s="47"/>
+    </row>
+    <row r="52" spans="1:11" ht="87.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="74"/>
+      <c r="B52" s="85" t="s">
+        <v>429</v>
+      </c>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="47" t="s">
+        <v>430</v>
+      </c>
+      <c r="K52" s="47"/>
+    </row>
+    <row r="53" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="74"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="47" t="s">
+        <v>431</v>
+      </c>
+      <c r="K53" s="47"/>
+    </row>
+    <row r="54" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="65"/>
+      <c r="B54" s="31"/>
+      <c r="J54" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
+  <mergeCells count="51">
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="H19:H20"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F6 F8:F1048576" xr:uid="{5FC96A82-C114-0A4B-9010-CCC01D2860A5}">
-      <formula1>"Low (0-4 hours), Medium (4.5-15 hours), High (15+ hours)"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E7 E13:E19 E21:E27 E29:E38 E40:E42 E44:E52 E54:E1048576" xr:uid="{FEB4AA5C-3F26-3048-9DD8-9E9B89184BD1}">
+      <formula1>"High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G6 G8:G1048576" xr:uid="{B0734C5B-72F7-CA4C-9AA4-11DB93A961CC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G7 G13:G19 G21:G27 G29:G38 G40:G42 G44:G52 G54:G1048576" xr:uid="{3C21E11F-C48C-F74B-8E6D-F9961EBDBC37}">
       <formula1>"Complete, In Progress, Not Started"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E6 E8:E1048576" xr:uid="{DFE44862-FA05-7443-BE34-2CB8B39BE5D6}">
-      <formula1>"High, Medium, Low"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F7 F13:F19 F21:F27 F29:F38 F40:F42 F44:F52 F54:F1048576" xr:uid="{BEDF83A3-1323-104A-A6C3-5BDAA9FD22BC}">
+      <formula1>"Low (0-4 hours), Medium (4.5-15 hours), High (15+ hours)"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" xr:uid="{E44724B8-FBFC-7A4E-B8E5-BD2A0FCA88B9}"/>
-    <hyperlink ref="J11" r:id="rId2" xr:uid="{83D382BA-7331-DD47-9615-05D275EF6D24}"/>
-    <hyperlink ref="J13" r:id="rId3" xr:uid="{6A013B46-D3E0-394F-900E-2A6CC5CB2B81}"/>
-    <hyperlink ref="J25" r:id="rId4" xr:uid="{CA97A72F-002F-0240-8B92-0362CFF05818}"/>
-    <hyperlink ref="J29" r:id="rId5" xr:uid="{429BDEA3-9FF8-3948-AF0C-E4704825D6E6}"/>
-    <hyperlink ref="J12" r:id="rId6" xr:uid="{961E659F-8DFA-3749-8EC2-A1B1E4D2AE18}"/>
-    <hyperlink ref="J4" r:id="rId7" xr:uid="{6F09405B-F37E-324E-97E1-99AB485928CF}"/>
-    <hyperlink ref="J6" r:id="rId8" xr:uid="{1215C7CD-BF0B-4A4C-9797-6B9B84D1D83A}"/>
-    <hyperlink ref="J7" r:id="rId9" location="add-a-token-to-your-landing-page" xr:uid="{248B4C6A-5652-DB47-B901-C6F502188500}"/>
-    <hyperlink ref="J21" r:id="rId10" xr:uid="{D9A45310-A5D8-9E45-97A4-61729A640589}"/>
-    <hyperlink ref="J20" r:id="rId11" xr:uid="{5F86B27F-7C8D-AA4B-A46C-2F00FAE6447C}"/>
-    <hyperlink ref="J33" r:id="rId12" xr:uid="{47FB7783-69D9-7647-9806-62A4A16F21A8}"/>
+    <hyperlink ref="J48" r:id="rId1" xr:uid="{ED89ECE3-52BF-6749-BAC6-15E32474C25C}"/>
+    <hyperlink ref="J35" r:id="rId2" xr:uid="{A5A6F4E7-1A05-9440-B31F-B96A7E994D44}"/>
+    <hyperlink ref="J7" r:id="rId3" xr:uid="{8B782022-ED94-7D4D-B855-25EE5BDBFF7A}"/>
+    <hyperlink ref="J11" r:id="rId4" xr:uid="{AF88DA84-4060-5448-8230-69B1C8E774AE}"/>
+    <hyperlink ref="J10" r:id="rId5" xr:uid="{76DE395B-0A2B-F944-8270-B10DD5713886}"/>
+    <hyperlink ref="J19" r:id="rId6" xr:uid="{09CF6061-EDC6-D240-AE07-9FA17DD1B892}"/>
+    <hyperlink ref="J20" r:id="rId7" xr:uid="{2CE43AF4-8576-924D-9752-BEC5083C3BAF}"/>
+    <hyperlink ref="J26" r:id="rId8" xr:uid="{1A42C5B8-75F1-9D42-A920-29A135A07F47}"/>
+    <hyperlink ref="J27" r:id="rId9" xr:uid="{C45244CB-386A-4045-BF34-F4C621BD25C8}"/>
+    <hyperlink ref="J28" r:id="rId10" xr:uid="{149A6644-7678-7F49-9E0D-114BDD918843}"/>
+    <hyperlink ref="J29" r:id="rId11" xr:uid="{DA233064-192B-F845-BA1C-A308589FC3F5}"/>
+    <hyperlink ref="J32" r:id="rId12" xr:uid="{66632D71-E800-C443-83C8-50416CB1AE6B}"/>
+    <hyperlink ref="J37" r:id="rId13" xr:uid="{44EFD9EB-3313-D04A-8547-4E7CCA4BBAC8}"/>
+    <hyperlink ref="J38" r:id="rId14" xr:uid="{A861F2E0-3C61-B74E-B2FC-309DBB7CA5F3}"/>
+    <hyperlink ref="J39" r:id="rId15" xr:uid="{EADF2D43-3986-784A-99B3-39F1E0380EC4}"/>
+    <hyperlink ref="J40" r:id="rId16" xr:uid="{6BD2D035-708C-E040-8755-819B9B43A7CF}"/>
+    <hyperlink ref="J41" r:id="rId17" xr:uid="{A3C58E08-5EC5-9845-BD2E-B31AD768384E}"/>
+    <hyperlink ref="J42" r:id="rId18" xr:uid="{AFCFD293-B886-E448-ADF4-14B7B3656085}"/>
+    <hyperlink ref="J44" r:id="rId19" xr:uid="{D1A26B47-9436-6045-A5E6-53AF229412DF}"/>
+    <hyperlink ref="J49" r:id="rId20" xr:uid="{AB0A73FC-8F22-C743-BAD4-51887F12917D}"/>
+    <hyperlink ref="J50" r:id="rId21" xr:uid="{AFC18224-05E7-234D-85C5-02F2051613C7}"/>
+    <hyperlink ref="J51" r:id="rId22" xr:uid="{696DCAAA-7091-D144-A23E-BA7DB244EC5E}"/>
+    <hyperlink ref="J52" r:id="rId23" xr:uid="{58B99CBA-C51F-AE4F-91CB-8AAB13E10D26}"/>
+    <hyperlink ref="J53" r:id="rId24" xr:uid="{471ACA9F-2EBB-7046-B50B-C07231DE5315}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="52"/>
-    <col min="2" max="2" width="39" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="46"/>
-    <col min="4" max="4" width="7.85546875" style="46" customWidth="1"/>
-    <col min="5" max="5" width="8" style="46" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="46" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="46" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" style="46" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" style="46" customWidth="1"/>
-    <col min="10" max="16384" width="14.42578125" style="46"/>
+    <col min="1" max="1" width="14.42578125" style="69"/>
+    <col min="2" max="2" width="39" style="32" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="44"/>
+    <col min="4" max="4" width="7.85546875" style="44" customWidth="1"/>
+    <col min="5" max="5" width="8" style="44" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" style="44" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="44" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="A1" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="46" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="88" t="s">
-        <v>323</v>
+      <c r="A3" s="82" t="s">
+        <v>333</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>324</v>
-      </c>
-      <c r="I3" s="49" t="s">
-        <v>328</v>
+        <v>334</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="31" t="s">
-        <v>325</v>
-      </c>
-      <c r="I4" s="49" t="s">
-        <v>329</v>
+        <v>335</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
-        <v>326</v>
+      <c r="A5" s="65" t="s">
+        <v>336</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="50"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="31"/>
-      <c r="I6" s="53"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="46" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="30" t="s">
@@ -5476,132 +6604,132 @@
       <c r="G8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="46" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="152.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="89" t="s">
-        <v>332</v>
+      <c r="A9" s="92" t="s">
+        <v>342</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="64" t="s">
-        <v>333</v>
+        <v>341</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="58" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="51" t="s">
-        <v>334</v>
+        <v>340</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="48" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
-        <v>72</v>
+      <c r="A11" s="71" t="s">
+        <v>73</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="51" t="s">
-        <v>336</v>
+        <v>345</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="48" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="92" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="51"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="48"/>
     </row>
     <row r="13" spans="1:9" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="90"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="51"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="48"/>
     </row>
     <row r="14" spans="1:9" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
-        <v>114</v>
+      <c r="A14" s="65" t="s">
+        <v>116</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="I14" s="49" t="s">
-        <v>338</v>
+        <v>347</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
-        <v>115</v>
+      <c r="A15" s="65" t="s">
+        <v>117</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
-        <v>116</v>
+      <c r="A16" s="82" t="s">
+        <v>118</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
-      <c r="B17" s="33" t="s">
-        <v>341</v>
+      <c r="A17" s="82"/>
+      <c r="B17" s="32" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="53"/>
-      <c r="B23" s="46"/>
-      <c r="H23" s="54"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="44"/>
+      <c r="H23" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5634,15 +6762,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Conversations xmlns="beb3ccd9-9cf9-40a9-923c-79c44a00fd08">
@@ -5669,6 +6788,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5972,28 +7100,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5946E23E-BD50-40C2-84BC-EDE86AE3C39D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96BFABE7-CF3F-4FD7-B05A-15DB9802F21E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="beb3ccd9-9cf9-40a9-923c-79c44a00fd08"/>
+    <ds:schemaRef ds:uri="d449adc5-a023-4a4e-b2f3-92dafbd76c81"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="33fb364f-eb7c-4bb9-b0b8-427e41e01e9c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="42202dc8-22a4-46a3-a8c9-17b1c003c0dc"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96BFABE7-CF3F-4FD7-B05A-15DB9802F21E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5946E23E-BD50-40C2-84BC-EDE86AE3C39D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="42202dc8-22a4-46a3-a8c9-17b1c003c0dc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="beb3ccd9-9cf9-40a9-923c-79c44a00fd08"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d449adc5-a023-4a4e-b2f3-92dafbd76c81"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="33fb364f-eb7c-4bb9-b0b8-427e41e01e9c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
